--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453152.5147253031</v>
+        <v>437838.0646389918</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955724</v>
+        <v>5668630.558955723</v>
       </c>
     </row>
     <row r="11">
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.12218148371484</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.4616495665634</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13.10067266067059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>52.62407629885327</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>55.77504579759023</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,11 +1607,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D14" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>123.8814522403791</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
-        <v>112.9995969463466</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9845033927267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>218.783368437975</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,58 +2330,58 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="I26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>40.7464314202472</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,23 +2792,23 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>89.56809105099072</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="31">
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>182.1236780068478</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>122.1593365443639</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>33.27932101827133</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>47.28737149424369</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>6.817411324556144</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>69.03881051849277</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>93.22625102200384</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>89.66547645067541</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4349,25 +4349,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
         <v>262.7299197543128</v>
@@ -4416,10 +4416,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>768.6413478676429</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>525.1925712235429</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6959718698396</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>32.51414579775877</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W9" t="n">
-        <v>399.5118995681682</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X9" t="n">
-        <v>399.5118995681682</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.7516008032143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -5078,10 +5078,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
         <v>262.7299197543128</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X12" t="n">
-        <v>720.6083788665362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.6083788665362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5194,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C14" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5315,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y14" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X14" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>318.8669524321267</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C15" t="n">
-        <v>144.4139231509997</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D15" t="n">
-        <v>144.4139231509997</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5358,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>318.8669524321267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>318.8669524321267</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5464,22 +5464,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>601.5428246748836</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
         <v>487.4018176583718</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5692,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.5185981156682</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5932,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.01731535111452</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6169,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>272.1352367728036</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C27" t="n">
-        <v>272.1352367728036</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D27" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>687.7470357432903</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>479.8955355377576</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y27" t="n">
-        <v>272.1352367728036</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6406,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>258.688372014889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>258.688372014889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>109.7539623536377</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>634.6640077999109</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>634.6640077999109</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y30" t="n">
-        <v>426.903709034957</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>223.6192102101089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6783,13 +6783,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>271.3811041200179</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
-        <v>271.3811041200179</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D36" t="n">
-        <v>271.3811041200179</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>233.7281741425731</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>930.4416797346046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>930.4416797346046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>930.4416797346046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>686.9929030905046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>479.1414028849718</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>271.3811041200179</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>380.2300195200815</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>205.7769902389545</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>205.7769902389545</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X39" t="n">
-        <v>756.2056553051034</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y39" t="n">
-        <v>548.4453565401495</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>325.807288741569</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C42" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>768.7196957382655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>768.7196957382655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>768.7196957382655</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>533.5675875065228</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5675875065228</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>533.5675875065228</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.807288741569</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7594,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7834,22 +7834,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,10 +10194,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,7 +10440,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,10 +11154,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.4021743712353</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.4110021661525</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>39.33893758286192</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22957,13 +22957,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,10 +23036,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,10 +23106,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>131.9685397327133</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23154,16 +23154,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>94.82098926578549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>170.1663362833846</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>33.76362821502185</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23625,19 +23625,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
-        <v>302.3031405687884</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24051,19 +24051,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,13 +24102,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>32.91161472294465</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24172,13 +24172,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24254,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>20.35782233292231</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,19 +24333,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24409,10 +24409,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>84.3028338263743</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,10 +24534,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>210.9485517406724</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24734,13 +24734,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>68.07698940441023</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="31">
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>69.57130515407184</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15.18418061884678</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>166.8854076765503</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25476,13 +25476,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>110.3577089611573</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>198.9555738789213</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,13 +25643,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>103.669688469823</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>78.45692008183399</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26007,10 +26007,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>116.0172193266289</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879942</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.4035187994</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36071.00003330653</v>
+        <v>-37901.40784585245</v>
       </c>
       <c r="C6" t="n">
-        <v>44698.43149824118</v>
+        <v>42868.02368569532</v>
       </c>
       <c r="D6" t="n">
-        <v>44698.43149824118</v>
+        <v>42868.02368569535</v>
       </c>
       <c r="E6" t="n">
-        <v>78326.03149824124</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="F6" t="n">
-        <v>78326.03149824124</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="G6" t="n">
-        <v>78326.03149824122</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="H6" t="n">
-        <v>78326.03149824122</v>
+        <v>76495.62368569527</v>
       </c>
       <c r="I6" t="n">
-        <v>78326.03149824121</v>
+        <v>76495.62368569527</v>
       </c>
       <c r="J6" t="n">
-        <v>15266.08889913501</v>
+        <v>13435.68108658907</v>
       </c>
       <c r="K6" t="n">
-        <v>78326.03149824121</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="L6" t="n">
-        <v>78326.03149824125</v>
+        <v>76495.62368569535</v>
       </c>
       <c r="M6" t="n">
-        <v>78326.03149824125</v>
+        <v>76495.62368569527</v>
       </c>
       <c r="N6" t="n">
-        <v>78326.03149824125</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="O6" t="n">
-        <v>78326.03149824125</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="P6" t="n">
-        <v>78326.03149824124</v>
+        <v>76495.62368569533</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,7 +37160,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37874,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514382</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955724</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>71.01467844038824</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +919,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>193.4616495665634</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.77504579759023</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="13">
@@ -1604,23 +1606,23 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C15" t="n">
-        <v>69.05674881342119</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1847,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="X20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="Y20" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>33.93991708044848</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>164.8304714084692</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,53 +2566,53 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9.73723617201896</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>63.14223173826446</v>
+        <v>109.4031921034048</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,7 +2857,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.09118670082915</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3111,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>133.0738757325525</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>182.1236780068478</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3202,55 +3204,55 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>122.1593365443639</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,70 +3423,70 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>6.817411324556144</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,7 +3742,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="X41" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>89.66547645067541</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4352,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>846.5570557448675</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>603.1082791007675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.5807722530562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>109.5807722530562</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>109.5807722530562</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5807722530562</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>768.6413478676429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>525.1925712235429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>317.3410710180102</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.5807722530562</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>718.7806050553886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y8" t="n">
-        <v>962.2293816994886</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4917,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5078,13 +5080,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>430.9452567743808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>430.9452567743808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.4964801302808</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="13">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>795.8418184905681</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C15" t="n">
         <v>726.0875267598396</v>
@@ -5364,7 +5366,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
         <v>656.0584510084244</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6074,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>929.7744109849307</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>701.5507927213197</v>
       </c>
       <c r="V24" t="n">
-        <v>193.7341723913397</v>
+        <v>466.398684489577</v>
       </c>
       <c r="W24" t="n">
-        <v>193.7341723913397</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X24" t="n">
-        <v>193.7341723913397</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="25">
@@ -6172,22 +6174,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.81530782185143</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C27" t="n">
-        <v>83.81530782185143</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D27" t="n">
         <v>20.03527576299844</v>
@@ -6312,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>83.81530782185143</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.81530782185143</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>35.98341002332393</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D32" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>577.9072497513741</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C33" t="n">
-        <v>577.9072497513741</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="D33" t="n">
-        <v>577.9072497513741</v>
+        <v>406.5532930683112</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F33" t="n">
         <v>272.1352367728036</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W33" t="n">
-        <v>577.9072497513741</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X33" t="n">
-        <v>577.9072497513741</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y33" t="n">
-        <v>577.9072497513741</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>862.8876260635219</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>688.4345967823949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>539.5001871211437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>380.2627321156882</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>233.7281741425731</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X39" t="n">
-        <v>728.9472631818171</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.1869644168632</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
         <v>31.35113235729608</v>
@@ -7448,13 +7450,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7594,10 +7596,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,22 +7754,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>109.8523314442283</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>109.8523314442283</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
         <v>19.28114311021272</v>
@@ -7795,10 +7797,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,16 +9722,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22790,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2880590747468</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22805,7 +22807,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>39.33893758286192</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.1663362833846</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="13">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23549,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C15" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23735,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>147.7031912398178</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,19 +23934,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24051,19 +24053,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>5.424356414370408</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>46.84073538823441</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24102,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,10 +24302,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>166.2248116143731</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>67.97011574095609</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>148.0596218681136</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>84.3028338263743</v>
+        <v>38.04187346123399</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,7 +24745,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>87.3538788638096</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>189.1474515333243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,13 +25001,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>24.57120472284848</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25044,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>69.57130515407184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,22 +25162,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>15.18418061884678</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>32.605133915851</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>198.9555738789213</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25628,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X41" t="n">
-        <v>179.3857036041842</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>103.669688469823</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>116.0172193266289</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879933</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26430,7 +26432,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26439,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26448,7 +26450,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26525,43 +26527,43 @@
         <v>42868.02368569532</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569535</v>
+        <v>42868.02368569532</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569527</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="G6" t="n">
         <v>76495.6236856953</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569527</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569527</v>
+        <v>76495.62368569529</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658907</v>
+        <v>13435.68108658905</v>
       </c>
       <c r="K6" t="n">
         <v>76495.62368569532</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569535</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569527</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="N6" t="n">
         <v>76495.6236856953</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569535</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569533</v>
+        <v>76495.62368569526</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35732,10 +35734,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N15" t="n">
         <v>169.9091475161415</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532584</v>
+        <v>337290.5109663219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955724</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>34.22381931663303</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -998,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,67 +1056,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>87.89355723993967</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,61 +1375,61 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>112.4803207282553</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,67 +1849,67 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>103.9917919211018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>54.91936045095112</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>33.93991708044848</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>109.4031921034048</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>115.9464870703654</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>97.44849695414119</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>133.0738757325525</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3520,13 +3520,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7383832473596</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>89.75619044871837</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4155,40 +4155,40 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
         <v>20.03527576299844</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>243.9530410142718</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>243.9530410142718</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>243.9530410142718</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X8" t="n">
-        <v>243.9530410142718</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>649.1947276839472</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C12" t="n">
-        <v>474.7416984028202</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D12" t="n">
-        <v>325.807288741569</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E12" t="n">
-        <v>166.5698337361135</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,7 +5129,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>712.019119383956</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y12" t="n">
-        <v>817.4100647040152</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5229,22 +5229,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>262.7299197543128</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5366,16 +5366,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5463,25 +5463,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5694,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="W20" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X20" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>908.583054045029</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>908.583054045029</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>929.7744109849307</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>701.5507927213197</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>466.398684489577</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6186,10 +6186,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>944.1299480494607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>944.1299480494607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
         <v>20.03527576299844</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6484,25 +6484,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
         <v>19.28114311021272</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>555.4877027295624</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>555.4877027295624</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>406.5532930683112</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6809,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>555.4877027295624</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>555.4877027295624</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X33" t="n">
-        <v>555.4877027295624</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>555.4877027295624</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I38" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J38" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="I38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J38" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7450,13 +7450,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7502,7 +7502,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7633,10 +7633,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,25 +7669,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
         <v>749.627473042513</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7836,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>185.4193833999402</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.3140538843193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="6">
@@ -22865,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>113.2212462480057</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,7 +22922,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.44995992327097</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>54.05286292161207</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>151.9490329357426</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23624,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>99.67031166394173</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23791,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>285.3113128993078</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>147.7031912398178</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24025,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84073538823441</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>45.23847370169202</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>166.2248116143731</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24463,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>140.1318817691307</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>38.04187346123399</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>109.9948950106095</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>120.394135900372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>24.57120472284848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25049,16 +25049,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>147.7031912398178</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25174,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25213,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25408,13 +25408,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>32.605133915851</v>
+        <v>14.75355855760483</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>82.95230853959737</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879946</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="F2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879937</v>
@@ -26334,28 +26334,28 @@
         <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879933</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585245</v>
+        <v>-50119.41846589289</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565489</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565493</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658905</v>
+        <v>1217.67046654862</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565479</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569526</v>
+        <v>64277.61306565483</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>43.28534947792188</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
